--- a/input/blog.xlsx
+++ b/input/blog.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A51E6C-5C4C-46C6-AB7F-4F66B2615311}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="loc_coor">#REF!</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Name of project</t>
   </si>
@@ -98,18 +99,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>first.txt</t>
-  </si>
-  <si>
-    <t>second.txt</t>
-  </si>
-  <si>
-    <t>third.txt</t>
-  </si>
-  <si>
-    <t>Jason Urguhart</t>
-  </si>
-  <si>
     <t>Thomas Cottreau</t>
   </si>
   <si>
@@ -123,12 +112,54 @@
   </si>
   <si>
     <t>Actuarial Associate</t>
+  </si>
+  <si>
+    <t>Ke is an Associate Actuarial Consultant currently working in Morneau Shepell’s Fredericton office. He is a part of Morneau Shepell’s workers compensation actuarial consulting team. Ke acts as the lead analyst on key accounts and has been involved in the accounting valuation of liabilities, ratemaking, and reserving procedures for various workers' compensation boards in Canada. In addition, he has worked on numerous OPEB (Other Post-Employment Benefit) plan valuations as well as the assessment of liabilities for Long-Term Disability Plans. His other responsibilities include establishing and maintaining effective relationships with clients, providing training to junior team members and model development for a number of in-house actuarial programs given his expertise in software development. </t>
+  </si>
+  <si>
+    <t>Tensorflow Installation on Ubuntu</t>
+  </si>
+  <si>
+    <t>Casey Li</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Investment Analyst</t>
+  </si>
+  <si>
+    <t>Jason Urquhart</t>
+  </si>
+  <si>
+    <t>tensorflow_install.txt</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Why ESPEast?</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>why.txt</t>
+  </si>
+  <si>
+    <t>my_goal_ke.txt</t>
+  </si>
+  <si>
+    <t>Ke's Goal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -670,23 +701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -728,109 +760,91 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>"blog "&amp;C$3&amp;" "&amp;$B4</f>
-        <v>blog title 1</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:H6" si="0">"blog "&amp;D$3&amp;" "&amp;$B4</f>
-        <v>blog subtitle 1</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog author 1</v>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="6">
-        <v>43280</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog category 1</v>
+        <v>43281</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>43280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>43281</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>"blog "&amp;C$3&amp;" "&amp;$B5</f>
-        <v>blog title 2</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog subtitle 2</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog author 2</v>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="6">
-        <v>43280</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog category 2</v>
+        <v>43281</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>43280</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>43281</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f>"blog "&amp;C$3&amp;" "&amp;$B6</f>
-        <v>blog title 3</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog subtitle 3</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog author 3</v>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="6">
-        <v>43280</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>blog category 3</v>
+        <v>43281</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>43280</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>43281</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -1150,11 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1177,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1198,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" ref="C4:E6" si="0">"blogger "&amp;E$3&amp;" "&amp;$B4</f>
+        <f t="shared" ref="E4:E7" si="0">"blogger "&amp;E$3&amp;" "&amp;$B4</f>
         <v>blogger description 1</v>
       </c>
       <c r="F4" s="15">
@@ -1222,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1241,19 +1255,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>blogger description 3</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -1261,17 +1274,28 @@
       <c r="G6" s="16">
         <v>43280</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>blogger description 4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>43280</v>
+      </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1501,5 +1525,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>